--- a/src/output_saver/test/test_output_excel.xlsx
+++ b/src/output_saver/test/test_output_excel.xlsx
@@ -126,7 +126,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="546c3cfa-2b39-11ed-8a0f-367ddad4384c.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="546d1f3a-2b3e-11ed-a31d-367ddad4384c.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
